--- a/ressources/matrices/matrice_risks.xlsx
+++ b/ressources/matrices/matrice_risks.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinlejeune/Desktop/TP_Audit_and_Sec_of_MedData/ressources/matrices/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D24E13D-FAD0-694A-85FC-FCC6BF3D6FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -18,15 +24,46 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Hostname</t>
+  </si>
+  <si>
+    <t>Impact</t>
+  </si>
+  <si>
+    <t>Possibilité</t>
+  </si>
+  <si>
+    <t>Mesure de contrôle</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,8 +86,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +369,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ressources/matrices/matrice_risks.xlsx
+++ b/ressources/matrices/matrice_risks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinlejeune/Desktop/TP_Audit_and_Sec_of_MedData/ressources/matrices/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D24E13D-FAD0-694A-85FC-FCC6BF3D6FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF29B598-BAC3-194B-8BDD-24534EC1DA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4580" yWindow="8920" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Hostname</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t>Mesure de contrôle</t>
+  </si>
+  <si>
+    <t>Audit</t>
+  </si>
+  <si>
+    <t>Par qui</t>
+  </si>
+  <si>
+    <t>Niveau de risque</t>
   </si>
 </sst>
 </file>
@@ -370,20 +379,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -391,9 +401,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
     </row>

--- a/ressources/matrices/matrice_risks.xlsx
+++ b/ressources/matrices/matrice_risks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinlejeune/Desktop/TP_Audit_and_Sec_of_MedData/ressources/matrices/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rudyb\Desktop\TP_Audit_and_Sec_of_MedData\ressources\matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF29B598-BAC3-194B-8BDD-24534EC1DA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64ACF89-908B-4428-BB54-7F9501D8A57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4580" yWindow="8920" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24195" yWindow="330" windowWidth="27510" windowHeight="20265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,34 +25,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Hostname</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Impact</t>
   </si>
   <si>
-    <t>Possibilité</t>
-  </si>
-  <si>
-    <t>Mesure de contrôle</t>
-  </si>
-  <si>
-    <t>Audit</t>
-  </si>
-  <si>
-    <t>Par qui</t>
-  </si>
-  <si>
-    <t>Niveau de risque</t>
+    <t>Probabilité</t>
+  </si>
+  <si>
+    <t>Titre</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Créé par</t>
+  </si>
+  <si>
+    <t>Témoin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,25 +59,24 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -95,10 +91,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -114,6 +111,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>167186</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1314449</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>35270</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9789101F-760B-ACC2-4FE0-5EA96322EF3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="514349" y="5386886"/>
+          <a:ext cx="7991475" cy="3678084"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -379,44 +442,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="1" max="6" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
+    <row r="2" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>